--- a/Data and Software/Overview_FullData_For_4_Academic_Years - 30 October 2023 - 2021.xlsx
+++ b/Data and Software/Overview_FullData_For_4_Academic_Years - 30 October 2023 - 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keneo\Downloads\Data and Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF84451-B0C8-4D04-B94E-6264A1C8E50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C9F152-7A30-45F2-B43A-7C717925BAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="912" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="54">
   <si>
     <t>Overview</t>
   </si>
@@ -334,7 +334,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -493,11 +493,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -622,6 +659,15 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -697,22 +743,22 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1139,155 +1185,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="16" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
+      <c r="A1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="56" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="49" t="s">
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="48"/>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="48"/>
-      <c r="AS1" s="48"/>
-      <c r="AT1" s="48"/>
-      <c r="AU1" s="48"/>
-      <c r="AV1" s="48"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="46"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="49"/>
       <c r="AY1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:51" ht="16" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="56" t="s">
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="56" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="56" t="s">
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="57" t="s">
+      <c r="Q2" s="51"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="58" t="s">
+      <c r="T2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="56" t="s">
+      <c r="U2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="48"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="56" t="s">
+      <c r="V2" s="51"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="56" t="s">
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="56" t="s">
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="57" t="s">
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="58" t="s">
+      <c r="AG2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="AH2" s="49" t="s">
+      <c r="AH2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="49" t="s">
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="49" t="s">
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="48"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="49" t="s">
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="50" t="s">
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="53" t="s">
         <v>12</v>
       </c>
       <c r="AY2" s="5" t="s">
@@ -1349,8 +1395,8 @@
       <c r="R3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="51"/>
-      <c r="T3" s="59"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="62"/>
       <c r="U3" s="9" t="s">
         <v>16</v>
       </c>
@@ -1384,8 +1430,8 @@
       <c r="AE3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="59"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="62"/>
       <c r="AH3" s="9" t="s">
         <v>16</v>
       </c>
@@ -1434,13 +1480,13 @@
       <c r="AW3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AX3" s="51"/>
+      <c r="AX3" s="54"/>
       <c r="AY3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:51" ht="16" x14ac:dyDescent="0.35">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="45" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1595,7 +1641,7 @@
       </c>
     </row>
     <row r="5" spans="1:51" ht="16" x14ac:dyDescent="0.35">
-      <c r="A5" s="43"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="12" t="s">
         <v>23</v>
       </c>
@@ -1748,7 +1794,7 @@
       </c>
     </row>
     <row r="6" spans="1:51" ht="32" x14ac:dyDescent="0.35">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="12" t="s">
         <v>24</v>
       </c>
@@ -1901,7 +1947,7 @@
       </c>
     </row>
     <row r="7" spans="1:51" ht="16" x14ac:dyDescent="0.35">
-      <c r="A7" s="43"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="12" t="s">
         <v>25</v>
       </c>
@@ -2054,7 +2100,7 @@
       </c>
     </row>
     <row r="8" spans="1:51" ht="32" x14ac:dyDescent="0.35">
-      <c r="A8" s="43"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="12" t="s">
         <v>26</v>
       </c>
@@ -2207,7 +2253,7 @@
       </c>
     </row>
     <row r="9" spans="1:51" ht="16" x14ac:dyDescent="0.35">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="12" t="s">
         <v>27</v>
       </c>
@@ -2360,7 +2406,7 @@
       </c>
     </row>
     <row r="10" spans="1:51" ht="16" x14ac:dyDescent="0.35">
-      <c r="A10" s="43"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="12" t="s">
         <v>28</v>
       </c>
@@ -2513,7 +2559,7 @@
       </c>
     </row>
     <row r="11" spans="1:51" ht="16" x14ac:dyDescent="0.35">
-      <c r="A11" s="43"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="12" t="s">
         <v>29</v>
       </c>
@@ -2666,7 +2712,7 @@
       </c>
     </row>
     <row r="12" spans="1:51" ht="16" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="12" t="s">
         <v>30</v>
       </c>
@@ -2819,7 +2865,7 @@
       </c>
     </row>
     <row r="13" spans="1:51" ht="32" x14ac:dyDescent="0.35">
-      <c r="A13" s="43"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="12" t="s">
         <v>31</v>
       </c>
@@ -2972,11 +3018,11 @@
       </c>
     </row>
     <row r="14" spans="1:51" ht="16" x14ac:dyDescent="0.35">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="17">
         <v>1259</v>
       </c>
@@ -3123,7 +3169,7 @@
       </c>
     </row>
     <row r="15" spans="1:51" ht="16" x14ac:dyDescent="0.35">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="45" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -3278,7 +3324,7 @@
       </c>
     </row>
     <row r="16" spans="1:51" ht="32" x14ac:dyDescent="0.35">
-      <c r="A16" s="43"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="12" t="s">
         <v>24</v>
       </c>
@@ -3431,7 +3477,7 @@
       </c>
     </row>
     <row r="17" spans="1:51" ht="16" x14ac:dyDescent="0.35">
-      <c r="A17" s="43"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="12" t="s">
         <v>30</v>
       </c>
@@ -3584,11 +3630,11 @@
       </c>
     </row>
     <row r="18" spans="1:51" ht="16" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="17">
         <v>29</v>
       </c>
@@ -3735,11 +3781,11 @@
       </c>
     </row>
     <row r="19" spans="1:51" ht="16" x14ac:dyDescent="0.35">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="46"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="20">
         <v>1288</v>
       </c>
@@ -3975,158 +4021,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="A1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="65" t="s">
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="49" t="s">
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="48"/>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="48"/>
-      <c r="AS1" s="48"/>
-      <c r="AT1" s="48"/>
-      <c r="AU1" s="48"/>
-      <c r="AV1" s="48"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="48"/>
-      <c r="AZ1" s="46"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="49"/>
     </row>
     <row r="2" spans="1:52" ht="16" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="56" t="s">
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="48"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="56" t="s">
+      <c r="K2" s="51"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="56" t="s">
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="48"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="66" t="s">
+      <c r="R2" s="51"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="58" t="s">
+      <c r="U2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="56" t="s">
+      <c r="V2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="48"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="56" t="s">
+      <c r="W2" s="51"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="56" t="s">
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="56" t="s">
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="66" t="s">
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="58" t="s">
+      <c r="AH2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="49" t="s">
+      <c r="AI2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="49" t="s">
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="49" t="s">
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="48"/>
-      <c r="AS2" s="48"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="49" t="s">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="62" t="s">
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AZ2" s="61" t="s">
+      <c r="AZ2" s="64" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4188,8 +4234,8 @@
       <c r="S3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="63"/>
-      <c r="U3" s="59"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="62"/>
       <c r="V3" s="9" t="s">
         <v>16</v>
       </c>
@@ -4223,8 +4269,8 @@
       <c r="AF3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="59"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="62"/>
       <c r="AI3" s="9" t="s">
         <v>16</v>
       </c>
@@ -4273,17 +4319,17 @@
       <c r="AX3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="59"/>
+      <c r="AY3" s="66"/>
+      <c r="AZ3" s="62"/>
     </row>
     <row r="4" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="45" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -4435,9 +4481,9 @@
       </c>
     </row>
     <row r="5" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="11" t="s">
         <v>30</v>
       </c>
@@ -4587,9 +4633,9 @@
       </c>
     </row>
     <row r="6" spans="1:52" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="11" t="s">
         <v>19</v>
       </c>
@@ -4739,9 +4785,9 @@
       </c>
     </row>
     <row r="7" spans="1:52" ht="32" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="42" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="45" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -4893,9 +4939,9 @@
       </c>
     </row>
     <row r="8" spans="1:52" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="11" t="s">
         <v>19</v>
       </c>
@@ -5045,9 +5091,9 @@
       </c>
     </row>
     <row r="9" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="42" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="45" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -5199,9 +5245,9 @@
       </c>
     </row>
     <row r="10" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="11" t="s">
         <v>29</v>
       </c>
@@ -5351,9 +5397,9 @@
       </c>
     </row>
     <row r="11" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="11" t="s">
         <v>30</v>
       </c>
@@ -5503,9 +5549,9 @@
       </c>
     </row>
     <row r="12" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="11" t="s">
         <v>31</v>
       </c>
@@ -5655,9 +5701,9 @@
       </c>
     </row>
     <row r="13" spans="1:52" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="11" t="s">
         <v>19</v>
       </c>
@@ -5807,9 +5853,9 @@
       </c>
     </row>
     <row r="14" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="42" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="45" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -5961,9 +6007,9 @@
       </c>
     </row>
     <row r="15" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="11" t="s">
         <v>28</v>
       </c>
@@ -6113,9 +6159,9 @@
       </c>
     </row>
     <row r="16" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="11" t="s">
         <v>30</v>
       </c>
@@ -6265,9 +6311,9 @@
       </c>
     </row>
     <row r="17" spans="1:52" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="11" t="s">
         <v>19</v>
       </c>
@@ -6417,9 +6463,9 @@
       </c>
     </row>
     <row r="18" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="42" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="45" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -6571,9 +6617,9 @@
       </c>
     </row>
     <row r="19" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="11" t="s">
         <v>30</v>
       </c>
@@ -6723,9 +6769,9 @@
       </c>
     </row>
     <row r="20" spans="1:52" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="11" t="s">
         <v>19</v>
       </c>
@@ -6875,9 +6921,9 @@
       </c>
     </row>
     <row r="21" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="42" t="s">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="45" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -7029,9 +7075,9 @@
       </c>
     </row>
     <row r="22" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="11" t="s">
         <v>29</v>
       </c>
@@ -7181,9 +7227,9 @@
       </c>
     </row>
     <row r="23" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="11" t="s">
         <v>30</v>
       </c>
@@ -7333,9 +7379,9 @@
       </c>
     </row>
     <row r="24" spans="1:52" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="11" t="s">
         <v>19</v>
       </c>
@@ -7485,9 +7531,9 @@
       </c>
     </row>
     <row r="25" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="42" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="45" t="s">
         <v>42</v>
       </c>
       <c r="D25" s="11" t="s">
@@ -7639,9 +7685,9 @@
       </c>
     </row>
     <row r="26" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
       <c r="D26" s="11" t="s">
         <v>28</v>
       </c>
@@ -7791,9 +7837,9 @@
       </c>
     </row>
     <row r="27" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="11" t="s">
         <v>29</v>
       </c>
@@ -7943,9 +7989,9 @@
       </c>
     </row>
     <row r="28" spans="1:52" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="11" t="s">
         <v>19</v>
       </c>
@@ -8095,9 +8141,9 @@
       </c>
     </row>
     <row r="29" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="42" t="s">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="45" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="11" t="s">
@@ -8249,9 +8295,9 @@
       </c>
     </row>
     <row r="30" spans="1:52" ht="32" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
       <c r="D30" s="11" t="s">
         <v>26</v>
       </c>
@@ -8401,9 +8447,9 @@
       </c>
     </row>
     <row r="31" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="11" t="s">
         <v>27</v>
       </c>
@@ -8553,9 +8599,9 @@
       </c>
     </row>
     <row r="32" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="11" t="s">
         <v>28</v>
       </c>
@@ -8705,9 +8751,9 @@
       </c>
     </row>
     <row r="33" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
       <c r="D33" s="11" t="s">
         <v>29</v>
       </c>
@@ -8857,9 +8903,9 @@
       </c>
     </row>
     <row r="34" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="11" t="s">
         <v>30</v>
       </c>
@@ -9009,9 +9055,9 @@
       </c>
     </row>
     <row r="35" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="11" t="s">
         <v>31</v>
       </c>
@@ -9161,9 +9207,9 @@
       </c>
     </row>
     <row r="36" spans="1:52" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="44"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="11" t="s">
         <v>19</v>
       </c>
@@ -9313,9 +9359,9 @@
       </c>
     </row>
     <row r="37" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="42" t="s">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="45" t="s">
         <v>44</v>
       </c>
       <c r="D37" s="11" t="s">
@@ -9467,9 +9513,9 @@
       </c>
     </row>
     <row r="38" spans="1:52" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="44"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="11" t="s">
         <v>19</v>
       </c>
@@ -9619,9 +9665,9 @@
       </c>
     </row>
     <row r="39" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="42" t="s">
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="45" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="11" t="s">
@@ -9773,9 +9819,9 @@
       </c>
     </row>
     <row r="40" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="11" t="s">
         <v>28</v>
       </c>
@@ -9925,9 +9971,9 @@
       </c>
     </row>
     <row r="41" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
       <c r="D41" s="11" t="s">
         <v>29</v>
       </c>
@@ -10077,9 +10123,9 @@
       </c>
     </row>
     <row r="42" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="11" t="s">
         <v>30</v>
       </c>
@@ -10229,9 +10275,9 @@
       </c>
     </row>
     <row r="43" spans="1:52" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="44"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="11" t="s">
         <v>19</v>
       </c>
@@ -10381,9 +10427,9 @@
       </c>
     </row>
     <row r="44" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="42" t="s">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="45" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="11" t="s">
@@ -10535,9 +10581,9 @@
       </c>
     </row>
     <row r="45" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
       <c r="D45" s="11" t="s">
         <v>28</v>
       </c>
@@ -10687,9 +10733,9 @@
       </c>
     </row>
     <row r="46" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="11" t="s">
         <v>29</v>
       </c>
@@ -10839,9 +10885,9 @@
       </c>
     </row>
     <row r="47" spans="1:52" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="44"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="47"/>
       <c r="D47" s="11" t="s">
         <v>19</v>
       </c>
@@ -10991,9 +11037,9 @@
       </c>
     </row>
     <row r="48" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="42" t="s">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="45" t="s">
         <v>47</v>
       </c>
       <c r="D48" s="11" t="s">
@@ -11145,9 +11191,9 @@
       </c>
     </row>
     <row r="49" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
       <c r="D49" s="11" t="s">
         <v>29</v>
       </c>
@@ -11297,9 +11343,9 @@
       </c>
     </row>
     <row r="50" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
       <c r="D50" s="11" t="s">
         <v>30</v>
       </c>
@@ -11449,9 +11495,9 @@
       </c>
     </row>
     <row r="51" spans="1:52" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="44"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="47"/>
       <c r="D51" s="11" t="s">
         <v>19</v>
       </c>
@@ -11601,9 +11647,9 @@
       </c>
     </row>
     <row r="52" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="42" t="s">
+      <c r="A52" s="46"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="45" t="s">
         <v>48</v>
       </c>
       <c r="D52" s="11" t="s">
@@ -11755,9 +11801,9 @@
       </c>
     </row>
     <row r="53" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
       <c r="D53" s="11" t="s">
         <v>28</v>
       </c>
@@ -11907,9 +11953,9 @@
       </c>
     </row>
     <row r="54" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
       <c r="D54" s="11" t="s">
         <v>29</v>
       </c>
@@ -12059,9 +12105,9 @@
       </c>
     </row>
     <row r="55" spans="1:52" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="44"/>
+      <c r="A55" s="46"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="47"/>
       <c r="D55" s="11" t="s">
         <v>19</v>
       </c>
@@ -12211,9 +12257,9 @@
       </c>
     </row>
     <row r="56" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="42" t="s">
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="45" t="s">
         <v>49</v>
       </c>
       <c r="D56" s="11" t="s">
@@ -12365,9 +12411,9 @@
       </c>
     </row>
     <row r="57" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
       <c r="D57" s="11" t="s">
         <v>29</v>
       </c>
@@ -12517,9 +12563,9 @@
       </c>
     </row>
     <row r="58" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
+      <c r="A58" s="46"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
       <c r="D58" s="11" t="s">
         <v>30</v>
       </c>
@@ -12669,9 +12715,9 @@
       </c>
     </row>
     <row r="59" spans="1:52" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="44"/>
+      <c r="A59" s="46"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="47"/>
       <c r="D59" s="11" t="s">
         <v>19</v>
       </c>
@@ -12821,9 +12867,9 @@
       </c>
     </row>
     <row r="60" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="42" t="s">
+      <c r="A60" s="46"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="45" t="s">
         <v>50</v>
       </c>
       <c r="D60" s="11" t="s">
@@ -12975,9 +13021,9 @@
       </c>
     </row>
     <row r="61" spans="1:52" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="44"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="47"/>
       <c r="D61" s="11" t="s">
         <v>19</v>
       </c>
@@ -13127,12 +13173,12 @@
       </c>
     </row>
     <row r="62" spans="1:52" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="43"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="42" t="s">
+      <c r="A62" s="46"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="46"/>
+      <c r="D62" s="49"/>
       <c r="E62" s="14">
         <v>1191</v>
       </c>
@@ -13279,7 +13325,7 @@
       </c>
     </row>
     <row r="63" spans="1:52" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="43"/>
+      <c r="A63" s="46"/>
       <c r="B63" s="33" t="s">
         <v>1</v>
       </c>
@@ -13435,11 +13481,11 @@
       </c>
     </row>
     <row r="64" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A64" s="43"/>
-      <c r="B64" s="42" t="s">
+      <c r="A64" s="46"/>
+      <c r="B64" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C64" s="42" t="s">
+      <c r="C64" s="45" t="s">
         <v>36</v>
       </c>
       <c r="D64" s="11" t="s">
@@ -13591,9 +13637,9 @@
       </c>
     </row>
     <row r="65" spans="1:52" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="44"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="47"/>
       <c r="D65" s="11" t="s">
         <v>19</v>
       </c>
@@ -13743,9 +13789,9 @@
       </c>
     </row>
     <row r="66" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="42" t="s">
+      <c r="A66" s="46"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="45" t="s">
         <v>37</v>
       </c>
       <c r="D66" s="11" t="s">
@@ -13897,9 +13943,9 @@
       </c>
     </row>
     <row r="67" spans="1:52" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="44"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="47"/>
       <c r="D67" s="11" t="s">
         <v>19</v>
       </c>
@@ -14049,9 +14095,9 @@
       </c>
     </row>
     <row r="68" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="42" t="s">
+      <c r="A68" s="46"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="45" t="s">
         <v>38</v>
       </c>
       <c r="D68" s="11" t="s">
@@ -14203,9 +14249,9 @@
       </c>
     </row>
     <row r="69" spans="1:52" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="44"/>
+      <c r="A69" s="46"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="47"/>
       <c r="D69" s="11" t="s">
         <v>19</v>
       </c>
@@ -14355,9 +14401,9 @@
       </c>
     </row>
     <row r="70" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A70" s="43"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="42" t="s">
+      <c r="A70" s="46"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="45" t="s">
         <v>39</v>
       </c>
       <c r="D70" s="11" t="s">
@@ -14509,9 +14555,9 @@
       </c>
     </row>
     <row r="71" spans="1:52" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="44"/>
+      <c r="A71" s="46"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="47"/>
       <c r="D71" s="11" t="s">
         <v>19</v>
       </c>
@@ -14661,9 +14707,9 @@
       </c>
     </row>
     <row r="72" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="42" t="s">
+      <c r="A72" s="46"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="45" t="s">
         <v>43</v>
       </c>
       <c r="D72" s="11" t="s">
@@ -14815,9 +14861,9 @@
       </c>
     </row>
     <row r="73" spans="1:52" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="44"/>
+      <c r="A73" s="46"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="47"/>
       <c r="D73" s="11" t="s">
         <v>19</v>
       </c>
@@ -14967,9 +15013,9 @@
       </c>
     </row>
     <row r="74" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A74" s="43"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="42" t="s">
+      <c r="A74" s="46"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="45" t="s">
         <v>45</v>
       </c>
       <c r="D74" s="11" t="s">
@@ -15121,9 +15167,9 @@
       </c>
     </row>
     <row r="75" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
       <c r="D75" s="11" t="s">
         <v>24</v>
       </c>
@@ -15273,9 +15319,9 @@
       </c>
     </row>
     <row r="76" spans="1:52" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="44"/>
+      <c r="A76" s="46"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="47"/>
       <c r="D76" s="11" t="s">
         <v>19</v>
       </c>
@@ -15425,9 +15471,9 @@
       </c>
     </row>
     <row r="77" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="42" t="s">
+      <c r="A77" s="46"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="45" t="s">
         <v>47</v>
       </c>
       <c r="D77" s="11" t="s">
@@ -15579,9 +15625,9 @@
       </c>
     </row>
     <row r="78" spans="1:52" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A78" s="43"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="44"/>
+      <c r="A78" s="46"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="47"/>
       <c r="D78" s="11" t="s">
         <v>19</v>
       </c>
@@ -15731,9 +15777,9 @@
       </c>
     </row>
     <row r="79" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A79" s="43"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="42" t="s">
+      <c r="A79" s="46"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="45" t="s">
         <v>49</v>
       </c>
       <c r="D79" s="11" t="s">
@@ -15885,9 +15931,9 @@
       </c>
     </row>
     <row r="80" spans="1:52" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A80" s="43"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="44"/>
+      <c r="A80" s="46"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="47"/>
       <c r="D80" s="11" t="s">
         <v>19</v>
       </c>
@@ -16037,12 +16083,12 @@
       </c>
     </row>
     <row r="81" spans="1:52" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="43"/>
-      <c r="B81" s="44"/>
-      <c r="C81" s="42" t="s">
+      <c r="A81" s="46"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="46"/>
+      <c r="D81" s="49"/>
       <c r="E81" s="14">
         <v>68</v>
       </c>
@@ -16189,7 +16235,7 @@
       </c>
     </row>
     <row r="82" spans="1:52" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="43"/>
+      <c r="A82" s="46"/>
       <c r="B82" s="33" t="s">
         <v>1</v>
       </c>
@@ -16345,12 +16391,12 @@
       </c>
     </row>
     <row r="83" spans="1:52" ht="16" x14ac:dyDescent="0.35">
-      <c r="A83" s="44"/>
-      <c r="B83" s="60" t="s">
+      <c r="A83" s="47"/>
+      <c r="B83" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C83" s="48"/>
-      <c r="D83" s="46"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="49"/>
       <c r="E83" s="14">
         <v>1259</v>
       </c>
@@ -16655,13 +16701,13 @@
       </c>
     </row>
     <row r="85" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A85" s="42" t="s">
+      <c r="A85" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B85" s="42" t="s">
+      <c r="B85" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C85" s="42" t="s">
+      <c r="C85" s="45" t="s">
         <v>52</v>
       </c>
       <c r="D85" s="11" t="s">
@@ -16813,9 +16859,9 @@
       </c>
     </row>
     <row r="86" spans="1:52" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A86" s="43"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="44"/>
+      <c r="A86" s="46"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="47"/>
       <c r="D86" s="11" t="s">
         <v>19</v>
       </c>
@@ -16965,12 +17011,12 @@
       </c>
     </row>
     <row r="87" spans="1:52" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="43"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="42" t="s">
+      <c r="A87" s="46"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="46"/>
+      <c r="D87" s="49"/>
       <c r="E87" s="14">
         <v>20</v>
       </c>
@@ -17117,7 +17163,7 @@
       </c>
     </row>
     <row r="88" spans="1:52" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="43"/>
+      <c r="A88" s="46"/>
       <c r="B88" s="33" t="s">
         <v>1</v>
       </c>
@@ -17273,11 +17319,11 @@
       </c>
     </row>
     <row r="89" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A89" s="43"/>
-      <c r="B89" s="42" t="s">
+      <c r="A89" s="46"/>
+      <c r="B89" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C89" s="42" t="s">
+      <c r="C89" s="45" t="s">
         <v>52</v>
       </c>
       <c r="D89" s="11" t="s">
@@ -17429,9 +17475,9 @@
       </c>
     </row>
     <row r="90" spans="1:52" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A90" s="43"/>
-      <c r="B90" s="43"/>
-      <c r="C90" s="43"/>
+      <c r="A90" s="46"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
       <c r="D90" s="11" t="s">
         <v>24</v>
       </c>
@@ -17581,9 +17627,9 @@
       </c>
     </row>
     <row r="91" spans="1:52" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A91" s="43"/>
-      <c r="B91" s="43"/>
-      <c r="C91" s="44"/>
+      <c r="A91" s="46"/>
+      <c r="B91" s="46"/>
+      <c r="C91" s="47"/>
       <c r="D91" s="11" t="s">
         <v>19</v>
       </c>
@@ -17733,12 +17779,12 @@
       </c>
     </row>
     <row r="92" spans="1:52" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="43"/>
-      <c r="B92" s="44"/>
-      <c r="C92" s="42" t="s">
+      <c r="A92" s="46"/>
+      <c r="B92" s="47"/>
+      <c r="C92" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D92" s="46"/>
+      <c r="D92" s="49"/>
       <c r="E92" s="14">
         <v>9</v>
       </c>
@@ -17885,7 +17931,7 @@
       </c>
     </row>
     <row r="93" spans="1:52" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="43"/>
+      <c r="A93" s="46"/>
       <c r="B93" s="33" t="s">
         <v>1</v>
       </c>
@@ -18041,12 +18087,12 @@
       </c>
     </row>
     <row r="94" spans="1:52" ht="16" x14ac:dyDescent="0.35">
-      <c r="A94" s="44"/>
-      <c r="B94" s="60" t="s">
+      <c r="A94" s="47"/>
+      <c r="B94" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C94" s="48"/>
-      <c r="D94" s="46"/>
+      <c r="C94" s="51"/>
+      <c r="D94" s="49"/>
       <c r="E94" s="14">
         <v>29</v>
       </c>
@@ -18351,12 +18397,12 @@
       </c>
     </row>
     <row r="96" spans="1:52" ht="16" x14ac:dyDescent="0.35">
-      <c r="A96" s="47" t="s">
+      <c r="A96" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B96" s="48"/>
-      <c r="C96" s="48"/>
-      <c r="D96" s="46"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="49"/>
       <c r="E96" s="20">
         <v>1288</v>
       </c>
@@ -18579,10 +18625,10 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="O1" sqref="O1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="3" x14ac:dyDescent="0.35"/>
@@ -18595,40 +18641,42 @@
     <col min="6" max="6" width="13.453125" customWidth="1"/>
     <col min="7" max="7" width="13.54296875" customWidth="1"/>
     <col min="8" max="9" width="13.453125" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" customWidth="1"/>
+    <col min="10" max="11" width="13.54296875" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" customWidth="1"/>
+    <col min="13" max="13" width="13.54296875" customWidth="1"/>
+    <col min="14" max="14" width="13.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" customWidth="1"/>
+    <col min="16" max="17" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="70"/>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
       <c r="D1" s="70"/>
       <c r="E1" s="70"/>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="68" t="s">
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="68" t="s">
+      <c r="J1" s="74"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="68" t="s">
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="67"/>
-    </row>
-    <row r="2" spans="1:15" ht="28" x14ac:dyDescent="0.35">
+      <c r="P1" s="71"/>
+      <c r="Q1" s="72"/>
+    </row>
+    <row r="2" spans="1:17" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="39" t="s">
         <v>33</v>
       </c>
@@ -18641,7 +18689,7 @@
       <c r="D2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="43" t="s">
         <v>53</v>
       </c>
       <c r="F2" s="40" t="s">
@@ -18660,22 +18708,28 @@
         <v>17</v>
       </c>
       <c r="K2" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="M2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="N2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="O2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="P2" s="40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q2" s="40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
         <v>21</v>
       </c>
@@ -18688,7 +18742,7 @@
       <c r="D3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="44">
         <v>2</v>
       </c>
       <c r="F3" s="40">
@@ -18707,22 +18761,28 @@
         <v>1</v>
       </c>
       <c r="K3" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="40">
+        <v>1</v>
+      </c>
+      <c r="M3" s="40">
         <v>3</v>
       </c>
-      <c r="M3" s="40">
-        <v>0</v>
-      </c>
       <c r="N3" s="40">
         <v>0</v>
       </c>
       <c r="O3" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P3" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>21</v>
       </c>
@@ -18735,7 +18795,7 @@
       <c r="D4" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="72">
+      <c r="E4" s="44">
         <v>9</v>
       </c>
       <c r="F4" s="40">
@@ -18754,22 +18814,28 @@
         <v>1</v>
       </c>
       <c r="K4" s="40">
+        <v>0</v>
+      </c>
+      <c r="L4" s="40">
         <v>10</v>
       </c>
-      <c r="L4" s="40">
+      <c r="M4" s="40">
         <v>3</v>
       </c>
-      <c r="M4" s="40">
-        <v>0</v>
-      </c>
       <c r="N4" s="40">
+        <v>0</v>
+      </c>
+      <c r="O4" s="40">
         <v>10</v>
       </c>
-      <c r="O4" s="40">
+      <c r="P4" s="40">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q4" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>21</v>
       </c>
@@ -18782,7 +18848,7 @@
       <c r="D5" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="72">
+      <c r="E5" s="44">
         <v>2</v>
       </c>
       <c r="F5" s="40">
@@ -18815,8 +18881,14 @@
       <c r="O5" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P5" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>21</v>
       </c>
@@ -18829,7 +18901,7 @@
       <c r="D6" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="44">
         <v>3</v>
       </c>
       <c r="F6" s="40">
@@ -18848,22 +18920,28 @@
         <v>0</v>
       </c>
       <c r="K6" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="40">
+        <v>1</v>
+      </c>
+      <c r="M6" s="40">
         <v>2</v>
       </c>
-      <c r="M6" s="40">
-        <v>0</v>
-      </c>
       <c r="N6" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P6" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
         <v>21</v>
       </c>
@@ -18876,7 +18954,7 @@
       <c r="D7" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="44">
         <v>16</v>
       </c>
       <c r="F7" s="40">
@@ -18895,22 +18973,28 @@
         <v>2</v>
       </c>
       <c r="K7" s="40">
+        <v>0</v>
+      </c>
+      <c r="L7" s="40">
         <v>10</v>
       </c>
-      <c r="L7" s="40">
+      <c r="M7" s="40">
         <v>3</v>
       </c>
-      <c r="M7" s="40">
-        <v>0</v>
-      </c>
       <c r="N7" s="40">
+        <v>0</v>
+      </c>
+      <c r="O7" s="40">
         <v>9</v>
       </c>
-      <c r="O7" s="40">
+      <c r="P7" s="40">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q7" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A8" s="41" t="s">
         <v>21</v>
       </c>
@@ -18923,7 +19007,7 @@
       <c r="D8" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="44">
         <v>18</v>
       </c>
       <c r="F8" s="40">
@@ -18942,22 +19026,28 @@
         <v>6</v>
       </c>
       <c r="K8" s="40">
+        <v>0</v>
+      </c>
+      <c r="L8" s="40">
         <v>34</v>
       </c>
-      <c r="L8" s="40">
+      <c r="M8" s="40">
         <v>9</v>
       </c>
-      <c r="M8" s="40">
-        <v>0</v>
-      </c>
       <c r="N8" s="40">
+        <v>0</v>
+      </c>
+      <c r="O8" s="40">
         <v>31</v>
       </c>
-      <c r="O8" s="40">
+      <c r="P8" s="40">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q8" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>21</v>
       </c>
@@ -18970,7 +19060,7 @@
       <c r="D9" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="44">
         <v>0</v>
       </c>
       <c r="F9" s="40">
@@ -19003,8 +19093,14 @@
       <c r="O9" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P9" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="41" t="s">
         <v>21</v>
       </c>
@@ -19017,7 +19113,7 @@
       <c r="D10" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="44">
         <v>0</v>
       </c>
       <c r="F10" s="40">
@@ -19036,10 +19132,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="40">
         <v>0</v>
@@ -19050,8 +19146,14 @@
       <c r="O10" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P10" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A11" s="41" t="s">
         <v>21</v>
       </c>
@@ -19064,7 +19166,7 @@
       <c r="D11" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="44">
         <v>5</v>
       </c>
       <c r="F11" s="40">
@@ -19086,19 +19188,25 @@
         <v>0</v>
       </c>
       <c r="L11" s="40">
+        <v>0</v>
+      </c>
+      <c r="M11" s="40">
         <v>4</v>
       </c>
-      <c r="M11" s="40">
-        <v>0</v>
-      </c>
       <c r="N11" s="40">
+        <v>0</v>
+      </c>
+      <c r="O11" s="40">
         <v>4</v>
       </c>
-      <c r="O11" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P11" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A12" s="41" t="s">
         <v>21</v>
       </c>
@@ -19111,7 +19219,7 @@
       <c r="D12" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="44">
         <v>7</v>
       </c>
       <c r="F12" s="40">
@@ -19130,22 +19238,28 @@
         <v>3</v>
       </c>
       <c r="K12" s="40">
+        <v>0</v>
+      </c>
+      <c r="L12" s="40">
         <v>7</v>
       </c>
-      <c r="L12" s="40">
+      <c r="M12" s="40">
         <v>6</v>
       </c>
-      <c r="M12" s="40">
-        <v>0</v>
-      </c>
       <c r="N12" s="40">
+        <v>0</v>
+      </c>
+      <c r="O12" s="40">
         <v>16</v>
       </c>
-      <c r="O12" s="40">
+      <c r="P12" s="40">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q12" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
         <v>21</v>
       </c>
@@ -19158,7 +19272,7 @@
       <c r="D13" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="44">
         <v>0</v>
       </c>
       <c r="F13" s="40">
@@ -19191,8 +19305,14 @@
       <c r="O13" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P13" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A14" s="41" t="s">
         <v>21</v>
       </c>
@@ -19205,7 +19325,7 @@
       <c r="D14" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="72">
+      <c r="E14" s="44">
         <v>5</v>
       </c>
       <c r="F14" s="40">
@@ -19224,22 +19344,28 @@
         <v>2</v>
       </c>
       <c r="K14" s="40">
+        <v>0</v>
+      </c>
+      <c r="L14" s="40">
         <v>4</v>
       </c>
-      <c r="L14" s="40">
+      <c r="M14" s="40">
         <v>2</v>
       </c>
-      <c r="M14" s="40">
-        <v>0</v>
-      </c>
       <c r="N14" s="40">
+        <v>0</v>
+      </c>
+      <c r="O14" s="40">
         <v>3</v>
       </c>
-      <c r="O14" s="40">
+      <c r="P14" s="40">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q14" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A15" s="41" t="s">
         <v>21</v>
       </c>
@@ -19252,7 +19378,7 @@
       <c r="D15" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="72">
+      <c r="E15" s="44">
         <v>3</v>
       </c>
       <c r="F15" s="40">
@@ -19271,22 +19397,28 @@
         <v>0</v>
       </c>
       <c r="K15" s="40">
+        <v>0</v>
+      </c>
+      <c r="L15" s="40">
         <v>5</v>
       </c>
-      <c r="L15" s="40">
-        <v>0</v>
-      </c>
       <c r="M15" s="40">
         <v>0</v>
       </c>
       <c r="N15" s="40">
+        <v>0</v>
+      </c>
+      <c r="O15" s="40">
         <v>10</v>
       </c>
-      <c r="O15" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P15" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A16" s="41" t="s">
         <v>21</v>
       </c>
@@ -19299,7 +19431,7 @@
       <c r="D16" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="72">
+      <c r="E16" s="44">
         <v>8</v>
       </c>
       <c r="F16" s="40">
@@ -19318,22 +19450,28 @@
         <v>1</v>
       </c>
       <c r="K16" s="40">
+        <v>0</v>
+      </c>
+      <c r="L16" s="40">
         <v>6</v>
       </c>
-      <c r="L16" s="40">
+      <c r="M16" s="40">
         <v>2</v>
       </c>
-      <c r="M16" s="40">
-        <v>0</v>
-      </c>
       <c r="N16" s="40">
+        <v>0</v>
+      </c>
+      <c r="O16" s="40">
         <v>10</v>
       </c>
-      <c r="O16" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P16" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A17" s="41" t="s">
         <v>21</v>
       </c>
@@ -19346,7 +19484,7 @@
       <c r="D17" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="72">
+      <c r="E17" s="44">
         <v>2</v>
       </c>
       <c r="F17" s="40">
@@ -19365,22 +19503,28 @@
         <v>0</v>
       </c>
       <c r="K17" s="40">
+        <v>0</v>
+      </c>
+      <c r="L17" s="40">
         <v>9</v>
       </c>
-      <c r="L17" s="40">
-        <v>1</v>
-      </c>
       <c r="M17" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="40">
+        <v>0</v>
+      </c>
+      <c r="O17" s="40">
         <v>6</v>
       </c>
-      <c r="O17" s="40">
+      <c r="P17" s="40">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q17" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A18" s="41" t="s">
         <v>21</v>
       </c>
@@ -19393,7 +19537,7 @@
       <c r="D18" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="44">
         <v>6</v>
       </c>
       <c r="F18" s="40">
@@ -19412,22 +19556,28 @@
         <v>0</v>
       </c>
       <c r="K18" s="40">
+        <v>0</v>
+      </c>
+      <c r="L18" s="40">
         <v>13</v>
       </c>
-      <c r="L18" s="40">
-        <v>0</v>
-      </c>
       <c r="M18" s="40">
         <v>0</v>
       </c>
       <c r="N18" s="40">
+        <v>0</v>
+      </c>
+      <c r="O18" s="40">
         <v>21</v>
       </c>
-      <c r="O18" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P18" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="41" t="s">
         <v>21</v>
       </c>
@@ -19440,7 +19590,7 @@
       <c r="D19" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="72">
+      <c r="E19" s="44">
         <v>37</v>
       </c>
       <c r="F19" s="40">
@@ -19459,22 +19609,28 @@
         <v>2</v>
       </c>
       <c r="K19" s="40">
+        <v>0</v>
+      </c>
+      <c r="L19" s="40">
         <v>45</v>
       </c>
-      <c r="L19" s="40">
+      <c r="M19" s="40">
         <v>7</v>
       </c>
-      <c r="M19" s="40">
-        <v>0</v>
-      </c>
       <c r="N19" s="40">
+        <v>0</v>
+      </c>
+      <c r="O19" s="40">
         <v>61</v>
       </c>
-      <c r="O19" s="40">
+      <c r="P19" s="40">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q19" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="41" t="s">
         <v>21</v>
       </c>
@@ -19487,7 +19643,7 @@
       <c r="D20" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="72">
+      <c r="E20" s="44">
         <v>4</v>
       </c>
       <c r="F20" s="40">
@@ -19506,11 +19662,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="40">
+        <v>0</v>
+      </c>
+      <c r="L20" s="40">
         <v>14</v>
       </c>
-      <c r="L20" s="40">
-        <v>0</v>
-      </c>
       <c r="M20" s="40">
         <v>0</v>
       </c>
@@ -19520,8 +19676,14 @@
       <c r="O20" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P20" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A21" s="41" t="s">
         <v>21</v>
       </c>
@@ -19534,7 +19696,7 @@
       <c r="D21" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="72">
+      <c r="E21" s="44">
         <v>0</v>
       </c>
       <c r="F21" s="40">
@@ -19553,22 +19715,28 @@
         <v>0</v>
       </c>
       <c r="K21" s="40">
+        <v>0</v>
+      </c>
+      <c r="L21" s="40">
         <v>3</v>
       </c>
-      <c r="L21" s="40">
-        <v>0</v>
-      </c>
       <c r="M21" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="40">
+        <v>1</v>
+      </c>
+      <c r="O21" s="40">
         <v>4</v>
       </c>
-      <c r="O21" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P21" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="41" t="s">
         <v>21</v>
       </c>
@@ -19581,7 +19749,7 @@
       <c r="D22" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="72">
+      <c r="E22" s="44">
         <v>0</v>
       </c>
       <c r="F22" s="40">
@@ -19614,8 +19782,14 @@
       <c r="O22" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P22" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A23" s="41" t="s">
         <v>21</v>
       </c>
@@ -19628,7 +19802,7 @@
       <c r="D23" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="72">
+      <c r="E23" s="44">
         <v>0</v>
       </c>
       <c r="F23" s="40">
@@ -19647,22 +19821,28 @@
         <v>0</v>
       </c>
       <c r="K23" s="40">
+        <v>0</v>
+      </c>
+      <c r="L23" s="40">
         <v>26</v>
       </c>
-      <c r="L23" s="40">
-        <v>0</v>
-      </c>
       <c r="M23" s="40">
         <v>0</v>
       </c>
       <c r="N23" s="40">
+        <v>0</v>
+      </c>
+      <c r="O23" s="40">
         <v>13</v>
       </c>
-      <c r="O23" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P23" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A24" s="41" t="s">
         <v>21</v>
       </c>
@@ -19675,7 +19855,7 @@
       <c r="D24" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="72">
+      <c r="E24" s="44">
         <v>0</v>
       </c>
       <c r="F24" s="40">
@@ -19706,10 +19886,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="P24" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A25" s="41" t="s">
         <v>21</v>
       </c>
@@ -19722,7 +19908,7 @@
       <c r="D25" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="72">
+      <c r="E25" s="44">
         <v>11</v>
       </c>
       <c r="F25" s="40">
@@ -19741,22 +19927,28 @@
         <v>5</v>
       </c>
       <c r="K25" s="40">
+        <v>0</v>
+      </c>
+      <c r="L25" s="40">
         <v>5</v>
       </c>
-      <c r="L25" s="40">
+      <c r="M25" s="40">
         <v>6</v>
       </c>
-      <c r="M25" s="40">
-        <v>0</v>
-      </c>
       <c r="N25" s="40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O25" s="40">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P25" s="40">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A26" s="41" t="s">
         <v>21</v>
       </c>
@@ -19769,7 +19961,7 @@
       <c r="D26" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="72">
+      <c r="E26" s="44">
         <v>23</v>
       </c>
       <c r="F26" s="40">
@@ -19788,22 +19980,28 @@
         <v>4</v>
       </c>
       <c r="K26" s="40">
+        <v>0</v>
+      </c>
+      <c r="L26" s="40">
         <v>22</v>
       </c>
-      <c r="L26" s="40">
+      <c r="M26" s="40">
         <v>15</v>
       </c>
-      <c r="M26" s="40">
-        <v>0</v>
-      </c>
       <c r="N26" s="40">
+        <v>0</v>
+      </c>
+      <c r="O26" s="40">
         <v>13</v>
       </c>
-      <c r="O26" s="40">
+      <c r="P26" s="40">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q26" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A27" s="41" t="s">
         <v>21</v>
       </c>
@@ -19816,7 +20014,7 @@
       <c r="D27" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="72">
+      <c r="E27" s="44">
         <v>0</v>
       </c>
       <c r="F27" s="40">
@@ -19849,8 +20047,14 @@
       <c r="O27" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P27" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A28" s="41" t="s">
         <v>21</v>
       </c>
@@ -19863,7 +20067,7 @@
       <c r="D28" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="72">
+      <c r="E28" s="44">
         <v>2</v>
       </c>
       <c r="F28" s="40">
@@ -19896,8 +20100,14 @@
       <c r="O28" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P28" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A29" s="41" t="s">
         <v>21</v>
       </c>
@@ -19910,7 +20120,7 @@
       <c r="D29" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="72">
+      <c r="E29" s="44">
         <v>13</v>
       </c>
       <c r="F29" s="40">
@@ -19929,11 +20139,11 @@
         <v>0</v>
       </c>
       <c r="K29" s="40">
+        <v>0</v>
+      </c>
+      <c r="L29" s="40">
         <v>47</v>
       </c>
-      <c r="L29" s="40">
-        <v>0</v>
-      </c>
       <c r="M29" s="40">
         <v>0</v>
       </c>
@@ -19943,8 +20153,14 @@
       <c r="O29" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P29" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="41" t="s">
         <v>21</v>
       </c>
@@ -19957,7 +20173,7 @@
       <c r="D30" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="72">
+      <c r="E30" s="44">
         <v>1</v>
       </c>
       <c r="F30" s="40">
@@ -19976,22 +20192,28 @@
         <v>1</v>
       </c>
       <c r="K30" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="40">
+        <v>1</v>
+      </c>
+      <c r="M30" s="40">
         <v>2</v>
       </c>
-      <c r="M30" s="40">
-        <v>0</v>
-      </c>
       <c r="N30" s="40">
         <v>0</v>
       </c>
       <c r="O30" s="40">
+        <v>0</v>
+      </c>
+      <c r="P30" s="40">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q30" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A31" s="41" t="s">
         <v>21</v>
       </c>
@@ -20004,7 +20226,7 @@
       <c r="D31" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="72">
+      <c r="E31" s="44">
         <v>3</v>
       </c>
       <c r="F31" s="40">
@@ -20035,10 +20257,16 @@
         <v>0</v>
       </c>
       <c r="O31" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="P31" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A32" s="41" t="s">
         <v>21</v>
       </c>
@@ -20051,7 +20279,7 @@
       <c r="D32" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="72">
+      <c r="E32" s="44">
         <v>10</v>
       </c>
       <c r="F32" s="40">
@@ -20070,22 +20298,28 @@
         <v>4</v>
       </c>
       <c r="K32" s="40">
+        <v>0</v>
+      </c>
+      <c r="L32" s="40">
         <v>13</v>
       </c>
-      <c r="L32" s="40">
+      <c r="M32" s="40">
         <v>5</v>
       </c>
-      <c r="M32" s="40">
-        <v>0</v>
-      </c>
       <c r="N32" s="40">
+        <v>0</v>
+      </c>
+      <c r="O32" s="40">
         <v>11</v>
       </c>
-      <c r="O32" s="40">
+      <c r="P32" s="40">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q32" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A33" s="41" t="s">
         <v>21</v>
       </c>
@@ -20098,7 +20332,7 @@
       <c r="D33" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="72">
+      <c r="E33" s="44">
         <v>20</v>
       </c>
       <c r="F33" s="40">
@@ -20117,22 +20351,28 @@
         <v>0</v>
       </c>
       <c r="K33" s="40">
+        <v>0</v>
+      </c>
+      <c r="L33" s="40">
         <v>21</v>
       </c>
-      <c r="L33" s="40">
+      <c r="M33" s="40">
         <v>2</v>
       </c>
-      <c r="M33" s="40">
-        <v>1</v>
-      </c>
       <c r="N33" s="40">
+        <v>1</v>
+      </c>
+      <c r="O33" s="40">
         <v>21</v>
       </c>
-      <c r="O33" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P33" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A34" s="41" t="s">
         <v>21</v>
       </c>
@@ -20145,7 +20385,7 @@
       <c r="D34" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="72">
+      <c r="E34" s="44">
         <v>8</v>
       </c>
       <c r="F34" s="40">
@@ -20164,22 +20404,28 @@
         <v>1</v>
       </c>
       <c r="K34" s="40">
+        <v>0</v>
+      </c>
+      <c r="L34" s="40">
         <v>7</v>
       </c>
-      <c r="L34" s="40">
+      <c r="M34" s="40">
         <v>2</v>
       </c>
-      <c r="M34" s="40">
-        <v>0</v>
-      </c>
       <c r="N34" s="40">
+        <v>0</v>
+      </c>
+      <c r="O34" s="40">
         <v>11</v>
       </c>
-      <c r="O34" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P34" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A35" s="41" t="s">
         <v>21</v>
       </c>
@@ -20192,7 +20438,7 @@
       <c r="D35" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="72">
+      <c r="E35" s="44">
         <v>840</v>
       </c>
       <c r="F35" s="40">
@@ -20211,22 +20457,28 @@
         <v>67</v>
       </c>
       <c r="K35" s="40">
+        <v>0</v>
+      </c>
+      <c r="L35" s="40">
         <v>733</v>
       </c>
-      <c r="L35" s="40">
+      <c r="M35" s="40">
         <v>56</v>
       </c>
-      <c r="M35" s="40">
-        <v>0</v>
-      </c>
       <c r="N35" s="40">
+        <v>0</v>
+      </c>
+      <c r="O35" s="40">
         <v>924</v>
       </c>
-      <c r="O35" s="40">
+      <c r="P35" s="40">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q35" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A36" s="41" t="s">
         <v>21</v>
       </c>
@@ -20239,7 +20491,7 @@
       <c r="D36" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="72">
+      <c r="E36" s="44">
         <v>0</v>
       </c>
       <c r="F36" s="40">
@@ -20261,19 +20513,25 @@
         <v>0</v>
       </c>
       <c r="L36" s="40">
+        <v>0</v>
+      </c>
+      <c r="M36" s="40">
         <v>3</v>
       </c>
-      <c r="M36" s="40">
-        <v>0</v>
-      </c>
       <c r="N36" s="40">
+        <v>0</v>
+      </c>
+      <c r="O36" s="40">
         <v>2</v>
       </c>
-      <c r="O36" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P36" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A37" s="41" t="s">
         <v>21</v>
       </c>
@@ -20286,7 +20544,7 @@
       <c r="D37" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="72">
+      <c r="E37" s="44">
         <v>4</v>
       </c>
       <c r="F37" s="40">
@@ -20305,11 +20563,11 @@
         <v>4</v>
       </c>
       <c r="K37" s="40">
+        <v>0</v>
+      </c>
+      <c r="L37" s="40">
         <v>2</v>
       </c>
-      <c r="L37" s="40">
-        <v>0</v>
-      </c>
       <c r="M37" s="40">
         <v>0</v>
       </c>
@@ -20317,10 +20575,16 @@
         <v>0</v>
       </c>
       <c r="O37" s="40">
+        <v>0</v>
+      </c>
+      <c r="P37" s="40">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q37" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A38" s="41" t="s">
         <v>21</v>
       </c>
@@ -20333,7 +20597,7 @@
       <c r="D38" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="72">
+      <c r="E38" s="44">
         <v>54</v>
       </c>
       <c r="F38" s="40">
@@ -20352,22 +20616,28 @@
         <v>19</v>
       </c>
       <c r="K38" s="40">
+        <v>0</v>
+      </c>
+      <c r="L38" s="40">
         <v>35</v>
       </c>
-      <c r="L38" s="40">
+      <c r="M38" s="40">
         <v>19</v>
       </c>
-      <c r="M38" s="40">
-        <v>0</v>
-      </c>
       <c r="N38" s="40">
+        <v>0</v>
+      </c>
+      <c r="O38" s="40">
         <v>40</v>
       </c>
-      <c r="O38" s="40">
+      <c r="P38" s="40">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q38" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A39" s="41" t="s">
         <v>21</v>
       </c>
@@ -20380,7 +20650,7 @@
       <c r="D39" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="72">
+      <c r="E39" s="44">
         <v>0</v>
       </c>
       <c r="F39" s="40">
@@ -20411,10 +20681,16 @@
         <v>0</v>
       </c>
       <c r="O39" s="40">
+        <v>0</v>
+      </c>
+      <c r="P39" s="40">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q39" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A40" s="41" t="s">
         <v>21</v>
       </c>
@@ -20427,7 +20703,7 @@
       <c r="D40" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="72">
+      <c r="E40" s="44">
         <v>1</v>
       </c>
       <c r="F40" s="40">
@@ -20460,8 +20736,14 @@
       <c r="O40" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P40" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A41" s="41" t="s">
         <v>21</v>
       </c>
@@ -20474,7 +20756,7 @@
       <c r="D41" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="72">
+      <c r="E41" s="44">
         <v>18</v>
       </c>
       <c r="F41" s="40">
@@ -20496,10 +20778,10 @@
         <v>0</v>
       </c>
       <c r="L41" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" s="40">
         <v>0</v>
@@ -20507,8 +20789,14 @@
       <c r="O41" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P41" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A42" s="41" t="s">
         <v>21</v>
       </c>
@@ -20521,7 +20809,7 @@
       <c r="D42" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="72">
+      <c r="E42" s="44">
         <v>5</v>
       </c>
       <c r="F42" s="40">
@@ -20540,22 +20828,28 @@
         <v>2</v>
       </c>
       <c r="K42" s="40">
+        <v>0</v>
+      </c>
+      <c r="L42" s="40">
         <v>2</v>
       </c>
-      <c r="L42" s="40">
-        <v>0</v>
-      </c>
       <c r="M42" s="40">
         <v>0</v>
       </c>
       <c r="N42" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="P42" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A43" s="41" t="s">
         <v>21</v>
       </c>
@@ -20568,7 +20862,7 @@
       <c r="D43" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="72">
+      <c r="E43" s="44">
         <v>5</v>
       </c>
       <c r="F43" s="40">
@@ -20587,22 +20881,28 @@
         <v>2</v>
       </c>
       <c r="K43" s="40">
+        <v>0</v>
+      </c>
+      <c r="L43" s="40">
         <v>3</v>
       </c>
-      <c r="L43" s="40">
-        <v>0</v>
-      </c>
       <c r="M43" s="40">
         <v>0</v>
       </c>
       <c r="N43" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="P43" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A44" s="41" t="s">
         <v>21</v>
       </c>
@@ -20615,7 +20915,7 @@
       <c r="D44" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="72">
+      <c r="E44" s="44">
         <v>46</v>
       </c>
       <c r="F44" s="40">
@@ -20634,22 +20934,28 @@
         <v>6</v>
       </c>
       <c r="K44" s="40">
+        <v>0</v>
+      </c>
+      <c r="L44" s="40">
         <v>33</v>
       </c>
-      <c r="L44" s="40">
+      <c r="M44" s="40">
         <v>7</v>
       </c>
-      <c r="M44" s="40">
-        <v>0</v>
-      </c>
       <c r="N44" s="40">
+        <v>0</v>
+      </c>
+      <c r="O44" s="40">
         <v>44</v>
       </c>
-      <c r="O44" s="40">
+      <c r="P44" s="40">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q44" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A45" s="41" t="s">
         <v>21</v>
       </c>
@@ -20662,7 +20968,7 @@
       <c r="D45" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="72">
+      <c r="E45" s="44">
         <v>0</v>
       </c>
       <c r="F45" s="40">
@@ -20695,8 +21001,14 @@
       <c r="O45" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P45" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A46" s="41" t="s">
         <v>21</v>
       </c>
@@ -20709,7 +21021,7 @@
       <c r="D46" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="72">
+      <c r="E46" s="44">
         <v>5</v>
       </c>
       <c r="F46" s="40">
@@ -20728,22 +21040,28 @@
         <v>2</v>
       </c>
       <c r="K46" s="40">
+        <v>0</v>
+      </c>
+      <c r="L46" s="40">
         <v>4</v>
       </c>
-      <c r="L46" s="40">
+      <c r="M46" s="40">
         <v>2</v>
       </c>
-      <c r="M46" s="40">
-        <v>0</v>
-      </c>
       <c r="N46" s="40">
+        <v>0</v>
+      </c>
+      <c r="O46" s="40">
         <v>7</v>
       </c>
-      <c r="O46" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P46" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A47" s="41" t="s">
         <v>21</v>
       </c>
@@ -20756,7 +21074,7 @@
       <c r="D47" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="72">
+      <c r="E47" s="44">
         <v>19</v>
       </c>
       <c r="F47" s="40">
@@ -20775,22 +21093,28 @@
         <v>18</v>
       </c>
       <c r="K47" s="40">
+        <v>0</v>
+      </c>
+      <c r="L47" s="40">
         <v>5</v>
       </c>
-      <c r="L47" s="40">
+      <c r="M47" s="40">
         <v>9</v>
       </c>
-      <c r="M47" s="40">
-        <v>0</v>
-      </c>
       <c r="N47" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" s="40">
+        <v>1</v>
+      </c>
+      <c r="P47" s="40">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q47" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A48" s="41" t="s">
         <v>21</v>
       </c>
@@ -20803,7 +21127,7 @@
       <c r="D48" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="72">
+      <c r="E48" s="44">
         <v>3</v>
       </c>
       <c r="F48" s="40">
@@ -20822,22 +21146,28 @@
         <v>1</v>
       </c>
       <c r="K48" s="40">
+        <v>0</v>
+      </c>
+      <c r="L48" s="40">
         <v>4</v>
       </c>
-      <c r="L48" s="40">
-        <v>1</v>
-      </c>
       <c r="M48" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="P48" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A49" s="41" t="s">
         <v>21</v>
       </c>
@@ -20850,7 +21180,7 @@
       <c r="D49" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="72">
+      <c r="E49" s="44">
         <v>2</v>
       </c>
       <c r="F49" s="40">
@@ -20878,13 +21208,19 @@
         <v>0</v>
       </c>
       <c r="N49" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="P49" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A50" s="41" t="s">
         <v>21</v>
       </c>
@@ -20897,7 +21233,7 @@
       <c r="D50" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="72">
+      <c r="E50" s="44">
         <v>15</v>
       </c>
       <c r="F50" s="40">
@@ -20916,22 +21252,28 @@
         <v>10</v>
       </c>
       <c r="K50" s="40">
+        <v>0</v>
+      </c>
+      <c r="L50" s="40">
         <v>5</v>
       </c>
-      <c r="L50" s="40">
+      <c r="M50" s="40">
         <v>4</v>
       </c>
-      <c r="M50" s="40">
-        <v>0</v>
-      </c>
       <c r="N50" s="40">
+        <v>0</v>
+      </c>
+      <c r="O50" s="40">
         <v>6</v>
       </c>
-      <c r="O50" s="40">
+      <c r="P50" s="40">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q50" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A51" s="41" t="s">
         <v>21</v>
       </c>
@@ -20944,7 +21286,7 @@
       <c r="D51" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="72">
+      <c r="E51" s="44">
         <v>1</v>
       </c>
       <c r="F51" s="40">
@@ -20963,22 +21305,28 @@
         <v>0</v>
       </c>
       <c r="K51" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="40">
         <v>1</v>
       </c>
       <c r="M51" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" s="40">
+        <v>0</v>
+      </c>
+      <c r="O51" s="40">
         <v>4</v>
       </c>
-      <c r="O51" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P51" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A52" s="41" t="s">
         <v>21</v>
       </c>
@@ -20991,7 +21339,7 @@
       <c r="D52" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="72">
+      <c r="E52" s="44">
         <v>7</v>
       </c>
       <c r="F52" s="40">
@@ -21013,19 +21361,25 @@
         <v>0</v>
       </c>
       <c r="L52" s="40">
+        <v>0</v>
+      </c>
+      <c r="M52" s="40">
         <v>2</v>
       </c>
-      <c r="M52" s="40">
-        <v>0</v>
-      </c>
       <c r="N52" s="40">
+        <v>0</v>
+      </c>
+      <c r="O52" s="40">
         <v>6</v>
       </c>
-      <c r="O52" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P52" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A53" s="41" t="s">
         <v>21</v>
       </c>
@@ -21038,7 +21392,7 @@
       <c r="D53" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E53" s="72">
+      <c r="E53" s="44">
         <v>8</v>
       </c>
       <c r="F53" s="40">
@@ -21057,22 +21411,28 @@
         <v>5</v>
       </c>
       <c r="K53" s="40">
+        <v>0</v>
+      </c>
+      <c r="L53" s="40">
         <v>5</v>
       </c>
-      <c r="L53" s="40">
+      <c r="M53" s="40">
         <v>9</v>
       </c>
-      <c r="M53" s="40">
-        <v>0</v>
-      </c>
       <c r="N53" s="40">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O53" s="40">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P53" s="40">
+        <v>9</v>
+      </c>
+      <c r="Q53" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A54" s="41" t="s">
         <v>21</v>
       </c>
@@ -21085,7 +21445,7 @@
       <c r="D54" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="72">
+      <c r="E54" s="44">
         <v>8</v>
       </c>
       <c r="F54" s="40">
@@ -21104,10 +21464,10 @@
         <v>2</v>
       </c>
       <c r="K54" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" s="40">
         <v>0</v>
@@ -21116,6 +21476,12 @@
         <v>0</v>
       </c>
       <c r="O54" s="40">
+        <v>0</v>
+      </c>
+      <c r="P54" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="40">
         <v>0</v>
       </c>
     </row>
@@ -21123,9 +21489,9 @@
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="1.2374015748031499" header="0.78740157480314998" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -21140,10 +21506,10 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="3" x14ac:dyDescent="0.35"/>
@@ -21156,15 +21522,15 @@
     <col min="6" max="6" width="13.453125" customWidth="1"/>
     <col min="7" max="7" width="13.54296875" customWidth="1"/>
     <col min="8" max="9" width="13.453125" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" customWidth="1"/>
+    <col min="10" max="11" width="13.54296875" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" customWidth="1"/>
+    <col min="13" max="13" width="13.54296875" customWidth="1"/>
+    <col min="14" max="14" width="13.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" customWidth="1"/>
+    <col min="16" max="17" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="28" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
         <v>33</v>
       </c>
@@ -21177,7 +21543,7 @@
       <c r="D1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="43" t="s">
         <v>53</v>
       </c>
       <c r="F1" s="40" t="s">
@@ -21196,22 +21562,28 @@
         <v>17</v>
       </c>
       <c r="K1" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="M1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="N1" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="O1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="P1" s="40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q1" s="40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
         <v>21</v>
       </c>
@@ -21224,7 +21596,7 @@
       <c r="D2" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="72">
+      <c r="E2" s="44">
         <v>2</v>
       </c>
       <c r="F2" s="40">
@@ -21243,22 +21615,28 @@
         <v>1</v>
       </c>
       <c r="K2" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="40">
+        <v>1</v>
+      </c>
+      <c r="M2" s="40">
         <v>3</v>
       </c>
-      <c r="M2" s="40">
-        <v>0</v>
-      </c>
       <c r="N2" s="40">
         <v>0</v>
       </c>
       <c r="O2" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P2" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
         <v>21</v>
       </c>
@@ -21271,7 +21649,7 @@
       <c r="D3" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="44">
         <v>9</v>
       </c>
       <c r="F3" s="40">
@@ -21290,22 +21668,28 @@
         <v>1</v>
       </c>
       <c r="K3" s="40">
+        <v>0</v>
+      </c>
+      <c r="L3" s="40">
         <v>10</v>
       </c>
-      <c r="L3" s="40">
+      <c r="M3" s="40">
         <v>3</v>
       </c>
-      <c r="M3" s="40">
-        <v>0</v>
-      </c>
       <c r="N3" s="40">
+        <v>0</v>
+      </c>
+      <c r="O3" s="40">
         <v>10</v>
       </c>
-      <c r="O3" s="40">
+      <c r="P3" s="40">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q3" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>21</v>
       </c>
@@ -21318,7 +21702,7 @@
       <c r="D4" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="72">
+      <c r="E4" s="44">
         <v>2</v>
       </c>
       <c r="F4" s="40">
@@ -21351,8 +21735,14 @@
       <c r="O4" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P4" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>21</v>
       </c>
@@ -21365,7 +21755,7 @@
       <c r="D5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="72">
+      <c r="E5" s="44">
         <v>3</v>
       </c>
       <c r="F5" s="40">
@@ -21384,22 +21774,28 @@
         <v>0</v>
       </c>
       <c r="K5" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="40">
+        <v>1</v>
+      </c>
+      <c r="M5" s="40">
         <v>2</v>
       </c>
-      <c r="M5" s="40">
-        <v>0</v>
-      </c>
       <c r="N5" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P5" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>21</v>
       </c>
@@ -21412,7 +21808,7 @@
       <c r="D6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="44">
         <v>16</v>
       </c>
       <c r="F6" s="40">
@@ -21431,22 +21827,28 @@
         <v>2</v>
       </c>
       <c r="K6" s="40">
+        <v>0</v>
+      </c>
+      <c r="L6" s="40">
         <v>10</v>
       </c>
-      <c r="L6" s="40">
+      <c r="M6" s="40">
         <v>3</v>
       </c>
-      <c r="M6" s="40">
-        <v>0</v>
-      </c>
       <c r="N6" s="40">
+        <v>0</v>
+      </c>
+      <c r="O6" s="40">
         <v>9</v>
       </c>
-      <c r="O6" s="40">
+      <c r="P6" s="40">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q6" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
         <v>21</v>
       </c>
@@ -21459,7 +21861,7 @@
       <c r="D7" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="44">
         <v>18</v>
       </c>
       <c r="F7" s="40">
@@ -21478,22 +21880,28 @@
         <v>6</v>
       </c>
       <c r="K7" s="40">
+        <v>0</v>
+      </c>
+      <c r="L7" s="40">
         <v>34</v>
       </c>
-      <c r="L7" s="40">
+      <c r="M7" s="40">
         <v>9</v>
       </c>
-      <c r="M7" s="40">
-        <v>0</v>
-      </c>
       <c r="N7" s="40">
+        <v>0</v>
+      </c>
+      <c r="O7" s="40">
         <v>31</v>
       </c>
-      <c r="O7" s="40">
+      <c r="P7" s="40">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q7" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A8" s="41" t="s">
         <v>21</v>
       </c>
@@ -21506,7 +21914,7 @@
       <c r="D8" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="44">
         <v>0</v>
       </c>
       <c r="F8" s="40">
@@ -21539,8 +21947,14 @@
       <c r="O8" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P8" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>21</v>
       </c>
@@ -21553,7 +21967,7 @@
       <c r="D9" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="44">
         <v>0</v>
       </c>
       <c r="F9" s="40">
@@ -21572,10 +21986,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="40">
         <v>0</v>
@@ -21586,8 +22000,14 @@
       <c r="O9" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P9" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="41" t="s">
         <v>21</v>
       </c>
@@ -21600,7 +22020,7 @@
       <c r="D10" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="44">
         <v>5</v>
       </c>
       <c r="F10" s="40">
@@ -21622,19 +22042,25 @@
         <v>0</v>
       </c>
       <c r="L10" s="40">
+        <v>0</v>
+      </c>
+      <c r="M10" s="40">
         <v>4</v>
       </c>
-      <c r="M10" s="40">
-        <v>0</v>
-      </c>
       <c r="N10" s="40">
+        <v>0</v>
+      </c>
+      <c r="O10" s="40">
         <v>4</v>
       </c>
-      <c r="O10" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P10" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A11" s="41" t="s">
         <v>21</v>
       </c>
@@ -21647,7 +22073,7 @@
       <c r="D11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="44">
         <v>7</v>
       </c>
       <c r="F11" s="40">
@@ -21666,22 +22092,28 @@
         <v>3</v>
       </c>
       <c r="K11" s="40">
+        <v>0</v>
+      </c>
+      <c r="L11" s="40">
         <v>7</v>
       </c>
-      <c r="L11" s="40">
+      <c r="M11" s="40">
         <v>6</v>
       </c>
-      <c r="M11" s="40">
-        <v>0</v>
-      </c>
       <c r="N11" s="40">
+        <v>0</v>
+      </c>
+      <c r="O11" s="40">
         <v>16</v>
       </c>
-      <c r="O11" s="40">
+      <c r="P11" s="40">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q11" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A12" s="41" t="s">
         <v>21</v>
       </c>
@@ -21694,7 +22126,7 @@
       <c r="D12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="44">
         <v>0</v>
       </c>
       <c r="F12" s="40">
@@ -21727,8 +22159,14 @@
       <c r="O12" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P12" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
         <v>21</v>
       </c>
@@ -21741,7 +22179,7 @@
       <c r="D13" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="44">
         <v>5</v>
       </c>
       <c r="F13" s="40">
@@ -21760,22 +22198,28 @@
         <v>2</v>
       </c>
       <c r="K13" s="40">
+        <v>0</v>
+      </c>
+      <c r="L13" s="40">
         <v>4</v>
       </c>
-      <c r="L13" s="40">
+      <c r="M13" s="40">
         <v>2</v>
       </c>
-      <c r="M13" s="40">
-        <v>0</v>
-      </c>
       <c r="N13" s="40">
+        <v>0</v>
+      </c>
+      <c r="O13" s="40">
         <v>3</v>
       </c>
-      <c r="O13" s="40">
+      <c r="P13" s="40">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q13" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A14" s="41" t="s">
         <v>21</v>
       </c>
@@ -21788,7 +22232,7 @@
       <c r="D14" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="72">
+      <c r="E14" s="44">
         <v>3</v>
       </c>
       <c r="F14" s="40">
@@ -21807,22 +22251,28 @@
         <v>0</v>
       </c>
       <c r="K14" s="40">
+        <v>0</v>
+      </c>
+      <c r="L14" s="40">
         <v>5</v>
       </c>
-      <c r="L14" s="40">
-        <v>0</v>
-      </c>
       <c r="M14" s="40">
         <v>0</v>
       </c>
       <c r="N14" s="40">
+        <v>0</v>
+      </c>
+      <c r="O14" s="40">
         <v>10</v>
       </c>
-      <c r="O14" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P14" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A15" s="41" t="s">
         <v>21</v>
       </c>
@@ -21835,7 +22285,7 @@
       <c r="D15" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="72">
+      <c r="E15" s="44">
         <v>8</v>
       </c>
       <c r="F15" s="40">
@@ -21854,22 +22304,28 @@
         <v>1</v>
       </c>
       <c r="K15" s="40">
+        <v>0</v>
+      </c>
+      <c r="L15" s="40">
         <v>6</v>
       </c>
-      <c r="L15" s="40">
+      <c r="M15" s="40">
         <v>2</v>
       </c>
-      <c r="M15" s="40">
-        <v>0</v>
-      </c>
       <c r="N15" s="40">
+        <v>0</v>
+      </c>
+      <c r="O15" s="40">
         <v>10</v>
       </c>
-      <c r="O15" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P15" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A16" s="41" t="s">
         <v>21</v>
       </c>
@@ -21882,7 +22338,7 @@
       <c r="D16" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="72">
+      <c r="E16" s="44">
         <v>2</v>
       </c>
       <c r="F16" s="40">
@@ -21901,22 +22357,28 @@
         <v>0</v>
       </c>
       <c r="K16" s="40">
+        <v>0</v>
+      </c>
+      <c r="L16" s="40">
         <v>9</v>
       </c>
-      <c r="L16" s="40">
-        <v>1</v>
-      </c>
       <c r="M16" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="40">
+        <v>0</v>
+      </c>
+      <c r="O16" s="40">
         <v>6</v>
       </c>
-      <c r="O16" s="40">
+      <c r="P16" s="40">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q16" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A17" s="41" t="s">
         <v>21</v>
       </c>
@@ -21929,7 +22391,7 @@
       <c r="D17" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="72">
+      <c r="E17" s="44">
         <v>6</v>
       </c>
       <c r="F17" s="40">
@@ -21948,22 +22410,28 @@
         <v>0</v>
       </c>
       <c r="K17" s="40">
+        <v>0</v>
+      </c>
+      <c r="L17" s="40">
         <v>13</v>
       </c>
-      <c r="L17" s="40">
-        <v>0</v>
-      </c>
       <c r="M17" s="40">
         <v>0</v>
       </c>
       <c r="N17" s="40">
+        <v>0</v>
+      </c>
+      <c r="O17" s="40">
         <v>21</v>
       </c>
-      <c r="O17" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P17" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A18" s="41" t="s">
         <v>21</v>
       </c>
@@ -21976,7 +22444,7 @@
       <c r="D18" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="44">
         <v>37</v>
       </c>
       <c r="F18" s="40">
@@ -21995,22 +22463,28 @@
         <v>2</v>
       </c>
       <c r="K18" s="40">
+        <v>0</v>
+      </c>
+      <c r="L18" s="40">
         <v>45</v>
       </c>
-      <c r="L18" s="40">
+      <c r="M18" s="40">
         <v>7</v>
       </c>
-      <c r="M18" s="40">
-        <v>0</v>
-      </c>
       <c r="N18" s="40">
+        <v>0</v>
+      </c>
+      <c r="O18" s="40">
         <v>61</v>
       </c>
-      <c r="O18" s="40">
+      <c r="P18" s="40">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q18" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="41" t="s">
         <v>21</v>
       </c>
@@ -22023,7 +22497,7 @@
       <c r="D19" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="72">
+      <c r="E19" s="44">
         <v>4</v>
       </c>
       <c r="F19" s="40">
@@ -22042,11 +22516,11 @@
         <v>0</v>
       </c>
       <c r="K19" s="40">
+        <v>0</v>
+      </c>
+      <c r="L19" s="40">
         <v>14</v>
       </c>
-      <c r="L19" s="40">
-        <v>0</v>
-      </c>
       <c r="M19" s="40">
         <v>0</v>
       </c>
@@ -22056,8 +22530,14 @@
       <c r="O19" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P19" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="41" t="s">
         <v>21</v>
       </c>
@@ -22070,7 +22550,7 @@
       <c r="D20" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="72">
+      <c r="E20" s="44">
         <v>0</v>
       </c>
       <c r="F20" s="40">
@@ -22089,22 +22569,28 @@
         <v>0</v>
       </c>
       <c r="K20" s="40">
+        <v>0</v>
+      </c>
+      <c r="L20" s="40">
         <v>3</v>
       </c>
-      <c r="L20" s="40">
-        <v>0</v>
-      </c>
       <c r="M20" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="40">
+        <v>1</v>
+      </c>
+      <c r="O20" s="40">
         <v>4</v>
       </c>
-      <c r="O20" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P20" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A21" s="41" t="s">
         <v>21</v>
       </c>
@@ -22117,7 +22603,7 @@
       <c r="D21" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="72">
+      <c r="E21" s="44">
         <v>0</v>
       </c>
       <c r="F21" s="40">
@@ -22150,8 +22636,14 @@
       <c r="O21" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P21" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="41" t="s">
         <v>21</v>
       </c>
@@ -22164,7 +22656,7 @@
       <c r="D22" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="72">
+      <c r="E22" s="44">
         <v>0</v>
       </c>
       <c r="F22" s="40">
@@ -22183,22 +22675,28 @@
         <v>0</v>
       </c>
       <c r="K22" s="40">
+        <v>0</v>
+      </c>
+      <c r="L22" s="40">
         <v>26</v>
       </c>
-      <c r="L22" s="40">
-        <v>0</v>
-      </c>
       <c r="M22" s="40">
         <v>0</v>
       </c>
       <c r="N22" s="40">
+        <v>0</v>
+      </c>
+      <c r="O22" s="40">
         <v>13</v>
       </c>
-      <c r="O22" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P22" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A23" s="41" t="s">
         <v>21</v>
       </c>
@@ -22211,7 +22709,7 @@
       <c r="D23" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="72">
+      <c r="E23" s="44">
         <v>0</v>
       </c>
       <c r="F23" s="40">
@@ -22242,10 +22740,16 @@
         <v>0</v>
       </c>
       <c r="O23" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="P23" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A24" s="41" t="s">
         <v>21</v>
       </c>
@@ -22258,7 +22762,7 @@
       <c r="D24" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="72">
+      <c r="E24" s="44">
         <v>11</v>
       </c>
       <c r="F24" s="40">
@@ -22277,22 +22781,28 @@
         <v>5</v>
       </c>
       <c r="K24" s="40">
+        <v>0</v>
+      </c>
+      <c r="L24" s="40">
         <v>5</v>
       </c>
-      <c r="L24" s="40">
+      <c r="M24" s="40">
         <v>6</v>
       </c>
-      <c r="M24" s="40">
-        <v>0</v>
-      </c>
       <c r="N24" s="40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O24" s="40">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P24" s="40">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A25" s="41" t="s">
         <v>21</v>
       </c>
@@ -22305,7 +22815,7 @@
       <c r="D25" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="72">
+      <c r="E25" s="44">
         <v>23</v>
       </c>
       <c r="F25" s="40">
@@ -22324,22 +22834,28 @@
         <v>4</v>
       </c>
       <c r="K25" s="40">
+        <v>0</v>
+      </c>
+      <c r="L25" s="40">
         <v>22</v>
       </c>
-      <c r="L25" s="40">
+      <c r="M25" s="40">
         <v>15</v>
       </c>
-      <c r="M25" s="40">
-        <v>0</v>
-      </c>
       <c r="N25" s="40">
+        <v>0</v>
+      </c>
+      <c r="O25" s="40">
         <v>13</v>
       </c>
-      <c r="O25" s="40">
+      <c r="P25" s="40">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q25" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A26" s="41" t="s">
         <v>21</v>
       </c>
@@ -22352,7 +22868,7 @@
       <c r="D26" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="72">
+      <c r="E26" s="44">
         <v>0</v>
       </c>
       <c r="F26" s="40">
@@ -22385,8 +22901,14 @@
       <c r="O26" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P26" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A27" s="41" t="s">
         <v>21</v>
       </c>
@@ -22399,7 +22921,7 @@
       <c r="D27" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="72">
+      <c r="E27" s="44">
         <v>2</v>
       </c>
       <c r="F27" s="40">
@@ -22432,8 +22954,14 @@
       <c r="O27" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P27" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A28" s="41" t="s">
         <v>21</v>
       </c>
@@ -22446,7 +22974,7 @@
       <c r="D28" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="72">
+      <c r="E28" s="44">
         <v>13</v>
       </c>
       <c r="F28" s="40">
@@ -22465,11 +22993,11 @@
         <v>0</v>
       </c>
       <c r="K28" s="40">
+        <v>0</v>
+      </c>
+      <c r="L28" s="40">
         <v>47</v>
       </c>
-      <c r="L28" s="40">
-        <v>0</v>
-      </c>
       <c r="M28" s="40">
         <v>0</v>
       </c>
@@ -22479,8 +23007,14 @@
       <c r="O28" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P28" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A29" s="41" t="s">
         <v>21</v>
       </c>
@@ -22493,7 +23027,7 @@
       <c r="D29" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="72">
+      <c r="E29" s="44">
         <v>1</v>
       </c>
       <c r="F29" s="40">
@@ -22512,22 +23046,28 @@
         <v>1</v>
       </c>
       <c r="K29" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="40">
+        <v>1</v>
+      </c>
+      <c r="M29" s="40">
         <v>2</v>
       </c>
-      <c r="M29" s="40">
-        <v>0</v>
-      </c>
       <c r="N29" s="40">
         <v>0</v>
       </c>
       <c r="O29" s="40">
+        <v>0</v>
+      </c>
+      <c r="P29" s="40">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q29" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="41" t="s">
         <v>21</v>
       </c>
@@ -22540,7 +23080,7 @@
       <c r="D30" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="72">
+      <c r="E30" s="44">
         <v>3</v>
       </c>
       <c r="F30" s="40">
@@ -22571,10 +23111,16 @@
         <v>0</v>
       </c>
       <c r="O30" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="P30" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A31" s="41" t="s">
         <v>21</v>
       </c>
@@ -22587,7 +23133,7 @@
       <c r="D31" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="72">
+      <c r="E31" s="44">
         <v>10</v>
       </c>
       <c r="F31" s="40">
@@ -22606,22 +23152,28 @@
         <v>4</v>
       </c>
       <c r="K31" s="40">
+        <v>0</v>
+      </c>
+      <c r="L31" s="40">
         <v>13</v>
       </c>
-      <c r="L31" s="40">
+      <c r="M31" s="40">
         <v>5</v>
       </c>
-      <c r="M31" s="40">
-        <v>0</v>
-      </c>
       <c r="N31" s="40">
+        <v>0</v>
+      </c>
+      <c r="O31" s="40">
         <v>11</v>
       </c>
-      <c r="O31" s="40">
+      <c r="P31" s="40">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q31" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A32" s="41" t="s">
         <v>21</v>
       </c>
@@ -22634,7 +23186,7 @@
       <c r="D32" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="72">
+      <c r="E32" s="44">
         <v>20</v>
       </c>
       <c r="F32" s="40">
@@ -22653,22 +23205,28 @@
         <v>0</v>
       </c>
       <c r="K32" s="40">
+        <v>0</v>
+      </c>
+      <c r="L32" s="40">
         <v>21</v>
       </c>
-      <c r="L32" s="40">
+      <c r="M32" s="40">
         <v>2</v>
       </c>
-      <c r="M32" s="40">
-        <v>1</v>
-      </c>
       <c r="N32" s="40">
+        <v>1</v>
+      </c>
+      <c r="O32" s="40">
         <v>21</v>
       </c>
-      <c r="O32" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P32" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A33" s="41" t="s">
         <v>21</v>
       </c>
@@ -22681,7 +23239,7 @@
       <c r="D33" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="72">
+      <c r="E33" s="44">
         <v>8</v>
       </c>
       <c r="F33" s="40">
@@ -22700,22 +23258,28 @@
         <v>1</v>
       </c>
       <c r="K33" s="40">
+        <v>0</v>
+      </c>
+      <c r="L33" s="40">
         <v>7</v>
       </c>
-      <c r="L33" s="40">
+      <c r="M33" s="40">
         <v>2</v>
       </c>
-      <c r="M33" s="40">
-        <v>0</v>
-      </c>
       <c r="N33" s="40">
+        <v>0</v>
+      </c>
+      <c r="O33" s="40">
         <v>11</v>
       </c>
-      <c r="O33" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P33" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A34" s="41" t="s">
         <v>21</v>
       </c>
@@ -22728,7 +23292,7 @@
       <c r="D34" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="72">
+      <c r="E34" s="44">
         <v>840</v>
       </c>
       <c r="F34" s="40">
@@ -22747,22 +23311,28 @@
         <v>67</v>
       </c>
       <c r="K34" s="40">
+        <v>0</v>
+      </c>
+      <c r="L34" s="40">
         <v>733</v>
       </c>
-      <c r="L34" s="40">
+      <c r="M34" s="40">
         <v>56</v>
       </c>
-      <c r="M34" s="40">
-        <v>0</v>
-      </c>
       <c r="N34" s="40">
+        <v>0</v>
+      </c>
+      <c r="O34" s="40">
         <v>924</v>
       </c>
-      <c r="O34" s="40">
+      <c r="P34" s="40">
         <v>43</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q34" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A35" s="41" t="s">
         <v>21</v>
       </c>
@@ -22775,7 +23345,7 @@
       <c r="D35" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="72">
+      <c r="E35" s="44">
         <v>0</v>
       </c>
       <c r="F35" s="40">
@@ -22797,19 +23367,25 @@
         <v>0</v>
       </c>
       <c r="L35" s="40">
+        <v>0</v>
+      </c>
+      <c r="M35" s="40">
         <v>3</v>
       </c>
-      <c r="M35" s="40">
-        <v>0</v>
-      </c>
       <c r="N35" s="40">
+        <v>0</v>
+      </c>
+      <c r="O35" s="40">
         <v>2</v>
       </c>
-      <c r="O35" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P35" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A36" s="41" t="s">
         <v>21</v>
       </c>
@@ -22822,7 +23398,7 @@
       <c r="D36" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="72">
+      <c r="E36" s="44">
         <v>4</v>
       </c>
       <c r="F36" s="40">
@@ -22841,11 +23417,11 @@
         <v>4</v>
       </c>
       <c r="K36" s="40">
+        <v>0</v>
+      </c>
+      <c r="L36" s="40">
         <v>2</v>
       </c>
-      <c r="L36" s="40">
-        <v>0</v>
-      </c>
       <c r="M36" s="40">
         <v>0</v>
       </c>
@@ -22853,10 +23429,16 @@
         <v>0</v>
       </c>
       <c r="O36" s="40">
+        <v>0</v>
+      </c>
+      <c r="P36" s="40">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q36" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A37" s="41" t="s">
         <v>21</v>
       </c>
@@ -22869,7 +23451,7 @@
       <c r="D37" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="72">
+      <c r="E37" s="44">
         <v>54</v>
       </c>
       <c r="F37" s="40">
@@ -22888,22 +23470,28 @@
         <v>19</v>
       </c>
       <c r="K37" s="40">
+        <v>0</v>
+      </c>
+      <c r="L37" s="40">
         <v>35</v>
       </c>
-      <c r="L37" s="40">
+      <c r="M37" s="40">
         <v>19</v>
       </c>
-      <c r="M37" s="40">
-        <v>0</v>
-      </c>
       <c r="N37" s="40">
+        <v>0</v>
+      </c>
+      <c r="O37" s="40">
         <v>40</v>
       </c>
-      <c r="O37" s="40">
+      <c r="P37" s="40">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q37" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A38" s="41" t="s">
         <v>21</v>
       </c>
@@ -22916,7 +23504,7 @@
       <c r="D38" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="72">
+      <c r="E38" s="44">
         <v>0</v>
       </c>
       <c r="F38" s="40">
@@ -22947,10 +23535,16 @@
         <v>0</v>
       </c>
       <c r="O38" s="40">
+        <v>0</v>
+      </c>
+      <c r="P38" s="40">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q38" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A39" s="41" t="s">
         <v>21</v>
       </c>
@@ -22963,7 +23557,7 @@
       <c r="D39" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="72">
+      <c r="E39" s="44">
         <v>1</v>
       </c>
       <c r="F39" s="40">
@@ -22996,8 +23590,14 @@
       <c r="O39" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P39" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A40" s="41" t="s">
         <v>21</v>
       </c>
@@ -23010,7 +23610,7 @@
       <c r="D40" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="72">
+      <c r="E40" s="44">
         <v>18</v>
       </c>
       <c r="F40" s="40">
@@ -23032,10 +23632,10 @@
         <v>0</v>
       </c>
       <c r="L40" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" s="40">
         <v>0</v>
@@ -23043,8 +23643,14 @@
       <c r="O40" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P40" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A41" s="41" t="s">
         <v>21</v>
       </c>
@@ -23057,7 +23663,7 @@
       <c r="D41" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="72">
+      <c r="E41" s="44">
         <v>5</v>
       </c>
       <c r="F41" s="40">
@@ -23076,22 +23682,28 @@
         <v>2</v>
       </c>
       <c r="K41" s="40">
+        <v>0</v>
+      </c>
+      <c r="L41" s="40">
         <v>2</v>
       </c>
-      <c r="L41" s="40">
-        <v>0</v>
-      </c>
       <c r="M41" s="40">
         <v>0</v>
       </c>
       <c r="N41" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="P41" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A42" s="41" t="s">
         <v>21</v>
       </c>
@@ -23104,7 +23716,7 @@
       <c r="D42" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="72">
+      <c r="E42" s="44">
         <v>5</v>
       </c>
       <c r="F42" s="40">
@@ -23123,22 +23735,28 @@
         <v>2</v>
       </c>
       <c r="K42" s="40">
+        <v>0</v>
+      </c>
+      <c r="L42" s="40">
         <v>3</v>
       </c>
-      <c r="L42" s="40">
-        <v>0</v>
-      </c>
       <c r="M42" s="40">
         <v>0</v>
       </c>
       <c r="N42" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="P42" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A43" s="41" t="s">
         <v>21</v>
       </c>
@@ -23151,7 +23769,7 @@
       <c r="D43" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="72">
+      <c r="E43" s="44">
         <v>46</v>
       </c>
       <c r="F43" s="40">
@@ -23170,22 +23788,28 @@
         <v>6</v>
       </c>
       <c r="K43" s="40">
+        <v>0</v>
+      </c>
+      <c r="L43" s="40">
         <v>33</v>
       </c>
-      <c r="L43" s="40">
+      <c r="M43" s="40">
         <v>7</v>
       </c>
-      <c r="M43" s="40">
-        <v>0</v>
-      </c>
       <c r="N43" s="40">
+        <v>0</v>
+      </c>
+      <c r="O43" s="40">
         <v>44</v>
       </c>
-      <c r="O43" s="40">
+      <c r="P43" s="40">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q43" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A44" s="41" t="s">
         <v>21</v>
       </c>
@@ -23198,7 +23822,7 @@
       <c r="D44" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="72">
+      <c r="E44" s="44">
         <v>0</v>
       </c>
       <c r="F44" s="40">
@@ -23231,8 +23855,14 @@
       <c r="O44" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P44" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A45" s="41" t="s">
         <v>21</v>
       </c>
@@ -23245,7 +23875,7 @@
       <c r="D45" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="72">
+      <c r="E45" s="44">
         <v>5</v>
       </c>
       <c r="F45" s="40">
@@ -23264,22 +23894,28 @@
         <v>2</v>
       </c>
       <c r="K45" s="40">
+        <v>0</v>
+      </c>
+      <c r="L45" s="40">
         <v>4</v>
       </c>
-      <c r="L45" s="40">
+      <c r="M45" s="40">
         <v>2</v>
       </c>
-      <c r="M45" s="40">
-        <v>0</v>
-      </c>
       <c r="N45" s="40">
+        <v>0</v>
+      </c>
+      <c r="O45" s="40">
         <v>7</v>
       </c>
-      <c r="O45" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P45" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A46" s="41" t="s">
         <v>21</v>
       </c>
@@ -23292,7 +23928,7 @@
       <c r="D46" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="72">
+      <c r="E46" s="44">
         <v>19</v>
       </c>
       <c r="F46" s="40">
@@ -23311,22 +23947,28 @@
         <v>18</v>
       </c>
       <c r="K46" s="40">
+        <v>0</v>
+      </c>
+      <c r="L46" s="40">
         <v>5</v>
       </c>
-      <c r="L46" s="40">
+      <c r="M46" s="40">
         <v>9</v>
       </c>
-      <c r="M46" s="40">
-        <v>0</v>
-      </c>
       <c r="N46" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="40">
+        <v>1</v>
+      </c>
+      <c r="P46" s="40">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q46" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A47" s="41" t="s">
         <v>21</v>
       </c>
@@ -23339,7 +23981,7 @@
       <c r="D47" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="72">
+      <c r="E47" s="44">
         <v>3</v>
       </c>
       <c r="F47" s="40">
@@ -23358,22 +24000,28 @@
         <v>1</v>
       </c>
       <c r="K47" s="40">
+        <v>0</v>
+      </c>
+      <c r="L47" s="40">
         <v>4</v>
       </c>
-      <c r="L47" s="40">
-        <v>1</v>
-      </c>
       <c r="M47" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="P47" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A48" s="41" t="s">
         <v>21</v>
       </c>
@@ -23386,7 +24034,7 @@
       <c r="D48" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="72">
+      <c r="E48" s="44">
         <v>2</v>
       </c>
       <c r="F48" s="40">
@@ -23414,13 +24062,19 @@
         <v>0</v>
       </c>
       <c r="N48" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="P48" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A49" s="41" t="s">
         <v>21</v>
       </c>
@@ -23433,7 +24087,7 @@
       <c r="D49" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="72">
+      <c r="E49" s="44">
         <v>15</v>
       </c>
       <c r="F49" s="40">
@@ -23452,22 +24106,28 @@
         <v>10</v>
       </c>
       <c r="K49" s="40">
+        <v>0</v>
+      </c>
+      <c r="L49" s="40">
         <v>5</v>
       </c>
-      <c r="L49" s="40">
+      <c r="M49" s="40">
         <v>4</v>
       </c>
-      <c r="M49" s="40">
-        <v>0</v>
-      </c>
       <c r="N49" s="40">
+        <v>0</v>
+      </c>
+      <c r="O49" s="40">
         <v>6</v>
       </c>
-      <c r="O49" s="40">
+      <c r="P49" s="40">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q49" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A50" s="41" t="s">
         <v>21</v>
       </c>
@@ -23480,7 +24140,7 @@
       <c r="D50" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="72">
+      <c r="E50" s="44">
         <v>1</v>
       </c>
       <c r="F50" s="40">
@@ -23499,22 +24159,28 @@
         <v>0</v>
       </c>
       <c r="K50" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="40">
         <v>1</v>
       </c>
       <c r="M50" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="40">
+        <v>0</v>
+      </c>
+      <c r="O50" s="40">
         <v>4</v>
       </c>
-      <c r="O50" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P50" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A51" s="41" t="s">
         <v>21</v>
       </c>
@@ -23527,7 +24193,7 @@
       <c r="D51" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="72">
+      <c r="E51" s="44">
         <v>7</v>
       </c>
       <c r="F51" s="40">
@@ -23549,19 +24215,25 @@
         <v>0</v>
       </c>
       <c r="L51" s="40">
+        <v>0</v>
+      </c>
+      <c r="M51" s="40">
         <v>2</v>
       </c>
-      <c r="M51" s="40">
-        <v>0</v>
-      </c>
       <c r="N51" s="40">
+        <v>0</v>
+      </c>
+      <c r="O51" s="40">
         <v>6</v>
       </c>
-      <c r="O51" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P51" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A52" s="41" t="s">
         <v>21</v>
       </c>
@@ -23574,7 +24246,7 @@
       <c r="D52" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="72">
+      <c r="E52" s="44">
         <v>8</v>
       </c>
       <c r="F52" s="40">
@@ -23593,22 +24265,28 @@
         <v>5</v>
       </c>
       <c r="K52" s="40">
+        <v>0</v>
+      </c>
+      <c r="L52" s="40">
         <v>5</v>
       </c>
-      <c r="L52" s="40">
+      <c r="M52" s="40">
         <v>9</v>
       </c>
-      <c r="M52" s="40">
-        <v>0</v>
-      </c>
       <c r="N52" s="40">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O52" s="40">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P52" s="40">
+        <v>9</v>
+      </c>
+      <c r="Q52" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A53" s="41" t="s">
         <v>21</v>
       </c>
@@ -23621,7 +24299,7 @@
       <c r="D53" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E53" s="72">
+      <c r="E53" s="44">
         <v>8</v>
       </c>
       <c r="F53" s="40">
@@ -23640,10 +24318,10 @@
         <v>2</v>
       </c>
       <c r="K53" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" s="40">
         <v>0</v>
@@ -23652,6 +24330,12 @@
         <v>0</v>
       </c>
       <c r="O53" s="40">
+        <v>0</v>
+      </c>
+      <c r="P53" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="40">
         <v>0</v>
       </c>
     </row>
@@ -23696,38 +24380,38 @@
       <c r="C1" s="70"/>
       <c r="D1" s="70"/>
       <c r="E1" s="70"/>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49" t="s">
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="49" t="s">
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49" t="s">
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
     </row>
     <row r="2" spans="1:17" ht="28" x14ac:dyDescent="0.35">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="42" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -24406,7 +25090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
@@ -26550,7 +27234,7 @@
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="3" x14ac:dyDescent="0.35"/>
@@ -26569,16 +27253,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="28" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="42" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="8" t="s">
